--- a/biology/Botanique/Square_de_La_Motte/Square_de_La_Motte.xlsx
+++ b/biology/Botanique/Square_de_La_Motte/Square_de_La_Motte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de La Motte, anciennement appelé « promenade de La Motte surplombant la Vilaine », est un jardin situé à Rennes à proximité du centre-ville.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se situe dans le quartier Thabor - Saint-Hélier - Alphonse Guérin entre les rues Victor Hugo (au sud), Martenot (au nord-est) et Guillaudot (à l’ouest).
 L’Hôtel de Cuillé se trouve en limite sud du square. Au nord du square, de l’autre côté de la rue Martenot, on trouve d'est en ouest : l’hôtel de Courcy, la caserne du Bon Pasteur et l’hôtel de préfecture.
@@ -544,11 +558,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une promenade est aménagée dès la fin du XVIIe siècle.
-L’escalier monumental qui y fut construit en 1829 par Charles Millardet fut ensuite déplacé en 1901 à l’entrée sud du parc du Thabor[1].
-Le monument aux morts du 41e régiment d'infanterie, à l’est du square, a été sculpté par Pierre Thézé en 1951[2].
+L’escalier monumental qui y fut construit en 1829 par Charles Millardet fut ensuite déplacé en 1901 à l’entrée sud du parc du Thabor.
+Le monument aux morts du 41e régiment d'infanterie, à l’est du square, a été sculpté par Pierre Thézé en 1951.
 </t>
         </is>
       </c>
